--- a/data/growth_data_Topt.xlsx
+++ b/data/growth_data_Topt.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10113"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B18C61-CA88-0A43-9004-444BC150754D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="13455" windowHeight="6915"/>
+    <workbookView xWindow="8340" yWindow="3340" windowWidth="26720" windowHeight="17920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="256">
   <si>
     <t>common_name</t>
   </si>
@@ -757,9 +758,6 @@
     <t>size_group</t>
   </si>
   <si>
-    <t xml:space="preserve">Calculated SGR growth from Table 1; Temperature not from Fishbase but from this paper: Effects of water temperature on feeding and growth of juvenile marbled flounder Pseudopleuronectes yokohamae </t>
-  </si>
-  <si>
     <t>Demersal</t>
   </si>
   <si>
@@ -779,12 +777,18 @@
   </si>
   <si>
     <t>Reef-associated; oceanodromous</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>SGR growth from Fig 1; Sizes from Table 1; Environmental temperature from Joh, M., Nakaya, M., Yoshida, N. &amp; Takatsu, T. (2013). Interannual growth differences and growth-selective survival in larvae and juveniles of marbled sole Pseudopleuronectes yokohamae. Marine Ecology Progress Series, 494, 267–279. AND Mitamura, H., Arai, N., Hori, M., Uchida, K., Kajiyama, M. &amp; Ishii, M. (2020). Occurrence of a temperate coastal flatfish, the marbled flounder Pseudopleuronectes yokohamae, at high water temperatures in a shallow bay in summer detected by acoustic telemetry. Fish Sci, 86, 77–85.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -941,6 +945,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -976,6 +997,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1151,43 +1189,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="3" customWidth="1"/>
-    <col min="21" max="21" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="38.140625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="71.85546875" style="3" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="19.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="3"/>
+    <col min="3" max="3" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="3"/>
+    <col min="10" max="10" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="19.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.83203125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="38.1640625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="71.83203125" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>197</v>
       </c>
@@ -1261,7 +1299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>159</v>
       </c>
@@ -1296,7 +1334,7 @@
         <v>109</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>110</v>
@@ -1319,11 +1357,11 @@
       <c r="T2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="3">
-        <v>11</v>
+      <c r="U2" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="W2" s="3">
         <v>1</v>
@@ -1332,7 +1370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>160</v>
       </c>
@@ -1367,7 +1405,7 @@
         <v>109</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>110</v>
@@ -1390,11 +1428,11 @@
       <c r="T3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="3">
-        <v>11</v>
+      <c r="U3" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="W3" s="3">
         <v>1</v>
@@ -1403,7 +1441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>161</v>
       </c>
@@ -1438,7 +1476,7 @@
         <v>109</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>110</v>
@@ -1461,11 +1499,11 @@
       <c r="T4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="3">
-        <v>11</v>
+      <c r="U4" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="W4" s="3">
         <v>1</v>
@@ -1474,7 +1512,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1503,7 +1541,7 @@
         <v>109</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>114</v>
@@ -1539,7 +1577,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
@@ -1568,7 +1606,7 @@
         <v>109</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>114</v>
@@ -1604,7 +1642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -1633,7 +1671,7 @@
         <v>109</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>114</v>
@@ -1669,7 +1707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -1698,7 +1736,7 @@
         <v>109</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>114</v>
@@ -1734,7 +1772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>149</v>
       </c>
@@ -1769,7 +1807,7 @@
         <v>109</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>115</v>
@@ -1805,7 +1843,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>150</v>
       </c>
@@ -1840,7 +1878,7 @@
         <v>109</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>115</v>
@@ -1876,7 +1914,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>151</v>
       </c>
@@ -1911,7 +1949,7 @@
         <v>109</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>115</v>
@@ -1947,7 +1985,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>152</v>
       </c>
@@ -1982,7 +2020,7 @@
         <v>109</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>115</v>
@@ -2018,7 +2056,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
@@ -2049,7 +2087,7 @@
         <v>124</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>110</v>
@@ -2085,7 +2123,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>38</v>
       </c>
@@ -2116,7 +2154,7 @@
         <v>124</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>110</v>
@@ -2152,7 +2190,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>44</v>
       </c>
@@ -2183,7 +2221,7 @@
         <v>124</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>110</v>
@@ -2217,7 +2255,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
@@ -2248,7 +2286,7 @@
         <v>124</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>110</v>
@@ -2282,7 +2320,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>238</v>
       </c>
@@ -2318,7 +2356,7 @@
         <v>124</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>106</v>
@@ -2352,7 +2390,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>236</v>
       </c>
@@ -2388,7 +2426,7 @@
         <v>124</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>106</v>
@@ -2422,7 +2460,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>219</v>
       </c>
@@ -2451,7 +2489,7 @@
         <v>126</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>110</v>
@@ -2484,7 +2522,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>220</v>
       </c>
@@ -2513,7 +2551,7 @@
         <v>126</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>110</v>
@@ -2546,7 +2584,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>221</v>
       </c>
@@ -2575,7 +2613,7 @@
         <v>126</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>110</v>
@@ -2608,7 +2646,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>222</v>
       </c>
@@ -2637,7 +2675,7 @@
         <v>126</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>110</v>
@@ -2670,7 +2708,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>223</v>
       </c>
@@ -2699,7 +2737,7 @@
         <v>126</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>110</v>
@@ -2732,7 +2770,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>224</v>
       </c>
@@ -2761,7 +2799,7 @@
         <v>126</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>110</v>
@@ -2794,7 +2832,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>225</v>
       </c>
@@ -2823,7 +2861,7 @@
         <v>126</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>110</v>
@@ -2856,7 +2894,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>51</v>
       </c>
@@ -2894,7 +2932,7 @@
         <v>109</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>110</v>
@@ -2927,7 +2965,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>67</v>
       </c>
@@ -2965,7 +3003,7 @@
         <v>109</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>110</v>
@@ -2998,7 +3036,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>69</v>
       </c>
@@ -3036,7 +3074,7 @@
         <v>109</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>110</v>
@@ -3069,7 +3107,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>71</v>
       </c>
@@ -3107,7 +3145,7 @@
         <v>126</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>110</v>
@@ -3143,7 +3181,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>72</v>
       </c>
@@ -3181,7 +3219,7 @@
         <v>126</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>110</v>
@@ -3217,7 +3255,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>73</v>
       </c>
@@ -3255,7 +3293,7 @@
         <v>126</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>110</v>
@@ -3291,7 +3329,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>74</v>
       </c>
@@ -3329,7 +3367,7 @@
         <v>126</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N32" s="5" t="s">
         <v>110</v>
@@ -3365,7 +3403,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>51</v>
       </c>
@@ -3403,7 +3441,7 @@
         <v>126</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N33" s="5" t="s">
         <v>110</v>
@@ -3439,7 +3477,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>75</v>
       </c>
@@ -3477,7 +3515,7 @@
         <v>126</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>110</v>
@@ -3513,7 +3551,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>88</v>
       </c>
@@ -3542,7 +3580,7 @@
         <v>126</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>114</v>
@@ -3578,7 +3616,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>186</v>
       </c>
@@ -3607,7 +3645,7 @@
         <v>126</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N36" s="3" t="s">
         <v>114</v>
@@ -3643,7 +3681,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>89</v>
       </c>
@@ -3672,7 +3710,7 @@
         <v>126</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N37" s="3" t="s">
         <v>115</v>
@@ -3708,7 +3746,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>90</v>
       </c>
@@ -3737,7 +3775,7 @@
         <v>126</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>115</v>
@@ -3773,7 +3811,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>91</v>
       </c>
@@ -3802,7 +3840,7 @@
         <v>126</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N39" s="3" t="s">
         <v>115</v>
@@ -3838,7 +3876,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>92</v>
       </c>
@@ -3867,7 +3905,7 @@
         <v>126</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>115</v>
@@ -3903,7 +3941,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>203</v>
       </c>
@@ -3932,7 +3970,7 @@
         <v>105</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N41" s="6" t="s">
         <v>110</v>
@@ -3965,7 +4003,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>204</v>
       </c>
@@ -3994,7 +4032,7 @@
         <v>105</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N42" s="6" t="s">
         <v>110</v>
@@ -4027,7 +4065,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>205</v>
       </c>
@@ -4056,7 +4094,7 @@
         <v>105</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N43" s="6" t="s">
         <v>110</v>
@@ -4089,7 +4127,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>228</v>
       </c>
@@ -4118,7 +4156,7 @@
         <v>109</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>110</v>
@@ -4151,7 +4189,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>229</v>
       </c>
@@ -4180,7 +4218,7 @@
         <v>109</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>110</v>
@@ -4213,7 +4251,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>230</v>
       </c>
@@ -4242,7 +4280,7 @@
         <v>109</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>110</v>

--- a/data/growth_data_Topt.xlsx
+++ b/data/growth_data_Topt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABFE19A-0E7A-1E48-B6B1-59A37129FA94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBBF59A-911B-BA46-AA9D-3C83CB0FBA49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13220" yWindow="2340" windowWidth="26720" windowHeight="17920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2480" yWindow="2620" windowWidth="21640" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="121">
   <si>
     <t>common_name</t>
   </si>
@@ -291,9 +291,6 @@
     <t>final_mass_g</t>
   </si>
   <si>
-    <t>Found from consumption literature search; Fish sizes are "about" the size specified</t>
-  </si>
-  <si>
     <t>Average init and final size from replicates</t>
   </si>
   <si>
@@ -306,12 +303,6 @@
     <t>Pelteobagrus</t>
   </si>
   <si>
-    <t>Zhang-etal-2016-Journal of Applied Ichtyology (found via Cmax search)</t>
-  </si>
-  <si>
-    <t>Standard growth unit. different equation; calculated sizes from mean TL using equation in Fig. 2</t>
-  </si>
-  <si>
     <t>#litterature_search</t>
   </si>
   <si>
@@ -378,7 +369,25 @@
     <t>growth_rate_%/day</t>
   </si>
   <si>
-    <t>Experiments not conducted at the same time (partly published previously); Maturation size 77.5 cm (Males 75, Females 80). Icelandic cod at year 2000 Pardoe et al 2009 CJFAS</t>
+    <t>Experiments not conducted at the same time (partly published previously); Maturation size 77.5 cm (Males 75, Females 80) (Icelandic cod at year 2000 Pardoe et al 2009 CJFAS); Temperature not from FishBase as it was not concistent with reference. Instead I used mean minimum and maximum from Righton et al (2010). Thermal niche of Atlantic cod Gadus morhua: limits, tolerance and optima. Marine Ecology Progress Series, 420, 1-13.</t>
+  </si>
+  <si>
+    <t>Growth is for a large size-range; Geometric mean average initial and final size</t>
+  </si>
+  <si>
+    <t>Standard growth unit. different equation; Calculated sizes from mean TL using equation in Fig. 2; Multiple data points per temp and size, calculated mean in separate doc.; w_maturation from Craig et al 1981 CJFA, age at maturatity 2,3, used geometric mean of length at age.</t>
+  </si>
+  <si>
+    <t>Fish sizes are "about" the size specified; Weight at maturation based on median lengths from two fishbase sources; Optimum is temperature treatment yielding highest growth (not estimated)</t>
+  </si>
+  <si>
+    <t>Fish sizes are "about" the size specified; Weight at maturation based on min size of maturation (midpoint of sexes) from Cao etal 2009 Environ Biol Fish; Optimum is temperature treatment yielding highest growth (not estimated)</t>
+  </si>
+  <si>
+    <t>Zhang-etal-2016-JournalofAppliedIchtyology</t>
+  </si>
+  <si>
+    <t>Geometric mean from size window; Weight at maturation from midpoint in length in Foss et al 2004 Reviews in Fish Biology and Fisheries</t>
   </si>
 </sst>
 </file>
@@ -417,18 +426,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -443,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -481,6 +484,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -490,22 +496,7 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -849,8 +840,8 @@
   <dimension ref="A1:X46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -884,7 +875,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>32</v>
@@ -899,7 +890,7 @@
         <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -929,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>9</v>
@@ -950,7 +941,7 @@
         <v>14</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>15</v>
@@ -992,7 +983,7 @@
         <v>63</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>64</v>
@@ -1019,7 +1010,7 @@
         <v>13.5</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="W2" s="3">
         <v>1</v>
@@ -1064,7 +1055,7 @@
         <v>63</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>64</v>
@@ -1091,7 +1082,7 @@
         <v>13.5</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="W3" s="3">
         <v>1</v>
@@ -1136,7 +1127,7 @@
         <v>63</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>64</v>
@@ -1163,7 +1154,7 @@
         <v>13.5</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="W4" s="3">
         <v>1</v>
@@ -1203,7 +1194,7 @@
         <v>63</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>68</v>
@@ -1230,7 +1221,7 @@
         <v>6</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="W5" s="3">
         <v>1</v>
@@ -1270,7 +1261,7 @@
         <v>63</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>68</v>
@@ -1297,7 +1288,7 @@
         <v>6</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="W6" s="3">
         <v>1</v>
@@ -1337,7 +1328,7 @@
         <v>63</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>68</v>
@@ -1364,7 +1355,7 @@
         <v>6</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="W7" s="3">
         <v>1</v>
@@ -1404,7 +1395,7 @@
         <v>63</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>68</v>
@@ -1431,7 +1422,7 @@
         <v>6</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="W8" s="3">
         <v>1</v>
@@ -1476,7 +1467,7 @@
         <v>63</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>69</v>
@@ -1503,7 +1494,7 @@
         <v>16.8</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="W9" s="3">
         <v>1</v>
@@ -1548,7 +1539,7 @@
         <v>63</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>69</v>
@@ -1575,7 +1566,7 @@
         <v>16.8</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="W10" s="3">
         <v>1</v>
@@ -1620,7 +1611,7 @@
         <v>63</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>69</v>
@@ -1647,7 +1638,7 @@
         <v>16.8</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="W11" s="3">
         <v>1</v>
@@ -1692,7 +1683,7 @@
         <v>63</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>69</v>
@@ -1719,7 +1710,7 @@
         <v>16.8</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="W12" s="3">
         <v>1</v>
@@ -1760,7 +1751,7 @@
         <v>73</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>64</v>
@@ -1787,7 +1778,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="W13" s="3">
         <v>1</v>
@@ -1828,7 +1819,7 @@
         <v>73</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>64</v>
@@ -1855,7 +1846,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="W14" s="3">
         <v>1</v>
@@ -1896,7 +1887,7 @@
         <v>73</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>64</v>
@@ -1923,7 +1914,7 @@
         <v>8.4</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="W15" s="3">
         <v>1</v>
@@ -1964,7 +1955,7 @@
         <v>73</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>64</v>
@@ -1991,7 +1982,7 @@
         <v>8.4</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="W16" s="3">
         <v>1</v>
@@ -2036,7 +2027,7 @@
         <v>73</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>60</v>
@@ -2063,13 +2054,13 @@
         <v>27.05</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="W17" s="3">
         <v>2</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -2108,7 +2099,7 @@
         <v>73</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>60</v>
@@ -2135,489 +2126,489 @@
         <v>27.05</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="W18" s="3">
         <v>2</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
         <v>6.96</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="10">
         <v>14.3</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10">
         <v>1.98</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18" t="s">
+      <c r="F19" s="10"/>
+      <c r="G19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="I19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="M19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="N19" s="19" t="s">
+      <c r="M19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O19" s="13">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P19" s="20">
+      <c r="P19" s="13">
         <v>4468</v>
       </c>
-      <c r="Q19" s="17">
+      <c r="Q19" s="10">
         <v>96000</v>
       </c>
-      <c r="R19" s="21">
+      <c r="R19" s="15">
         <v>2</v>
       </c>
-      <c r="S19" s="21">
+      <c r="S19" s="15">
         <v>16</v>
       </c>
-      <c r="T19" s="21">
+      <c r="T19" s="15">
         <v>9</v>
       </c>
-      <c r="U19" s="21">
-        <v>6.6</v>
-      </c>
-      <c r="V19" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="W19" s="18">
+      <c r="U19" s="15">
+        <v>5.4</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="W19" s="4">
         <v>2</v>
       </c>
-      <c r="X19" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
+      <c r="X19" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
         <v>4.66</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="10">
         <v>13.8</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17">
-        <v>6.74</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10">
+        <v>7</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="M20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="N20" s="19" t="s">
+      <c r="M20" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N20" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="O20" s="20">
+      <c r="O20" s="13">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P20" s="20">
+      <c r="P20" s="13">
         <v>4468</v>
       </c>
-      <c r="Q20" s="17">
+      <c r="Q20" s="10">
         <v>96000</v>
       </c>
-      <c r="R20" s="21">
+      <c r="R20" s="15">
         <v>2</v>
       </c>
-      <c r="S20" s="21">
+      <c r="S20" s="15">
         <v>16</v>
       </c>
-      <c r="T20" s="21">
+      <c r="T20" s="15">
         <v>9</v>
       </c>
-      <c r="U20" s="21">
-        <v>6.6</v>
-      </c>
-      <c r="V20" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="W20" s="18">
+      <c r="U20" s="15">
+        <v>5.4</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="W20" s="4">
         <v>2</v>
       </c>
-      <c r="X20" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16">
+      <c r="X20" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
         <v>2.59</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="10">
         <v>13.2</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17">
-        <v>13.7</v>
-      </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10">
+        <v>14</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="L21" s="19" t="s">
+      <c r="L21" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="M21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="N21" s="19" t="s">
+      <c r="M21" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N21" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="O21" s="20">
+      <c r="O21" s="13">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P21" s="20">
+      <c r="P21" s="13">
         <v>4468</v>
       </c>
-      <c r="Q21" s="17">
+      <c r="Q21" s="10">
         <v>96000</v>
       </c>
-      <c r="R21" s="21">
+      <c r="R21" s="15">
         <v>2</v>
       </c>
-      <c r="S21" s="21">
+      <c r="S21" s="15">
         <v>16</v>
       </c>
-      <c r="T21" s="21">
+      <c r="T21" s="15">
         <v>9</v>
       </c>
-      <c r="U21" s="21">
-        <v>6.6</v>
-      </c>
-      <c r="V21" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="W21" s="18">
+      <c r="U21" s="15">
+        <v>5.4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="W21" s="4">
         <v>2</v>
       </c>
-      <c r="X21" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16">
+      <c r="X21" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
         <v>1.75</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="10">
         <v>12.1</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17">
-        <v>56.9</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10">
+        <v>57</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="L22" s="19" t="s">
+      <c r="L22" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="M22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="N22" s="19" t="s">
+      <c r="M22" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="O22" s="20">
+      <c r="O22" s="13">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P22" s="20">
+      <c r="P22" s="13">
         <v>4468</v>
       </c>
-      <c r="Q22" s="17">
+      <c r="Q22" s="10">
         <v>96000</v>
       </c>
-      <c r="R22" s="21">
+      <c r="R22" s="15">
         <v>2</v>
       </c>
-      <c r="S22" s="21">
+      <c r="S22" s="15">
         <v>16</v>
       </c>
-      <c r="T22" s="21">
+      <c r="T22" s="15">
         <v>9</v>
       </c>
-      <c r="U22" s="21">
-        <v>6.6</v>
-      </c>
-      <c r="V22" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="W22" s="18">
+      <c r="U22" s="15">
+        <v>5.4</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="W22" s="4">
         <v>2</v>
       </c>
-      <c r="X22" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16">
+      <c r="X22" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
         <v>1.17</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="10">
         <v>11.6</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17">
-        <v>143.4</v>
-      </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10">
+        <v>143</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="L23" s="19" t="s">
+      <c r="L23" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="M23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="N23" s="19" t="s">
+      <c r="M23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="O23" s="20">
+      <c r="O23" s="13">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P23" s="20">
+      <c r="P23" s="13">
         <v>4468</v>
       </c>
-      <c r="Q23" s="17">
+      <c r="Q23" s="10">
         <v>96000</v>
       </c>
-      <c r="R23" s="21">
+      <c r="R23" s="15">
         <v>2</v>
       </c>
-      <c r="S23" s="21">
+      <c r="S23" s="15">
         <v>16</v>
       </c>
-      <c r="T23" s="21">
+      <c r="T23" s="15">
         <v>9</v>
       </c>
-      <c r="U23" s="21">
-        <v>6.6</v>
-      </c>
-      <c r="V23" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="W23" s="18">
+      <c r="U23" s="15">
+        <v>5.4</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="W23" s="4">
         <v>2</v>
       </c>
-      <c r="X23" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16">
+      <c r="X23" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
         <v>0.66</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="10">
         <v>10.6</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10">
         <v>373</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K24" s="19" t="s">
+      <c r="K24" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="L24" s="19" t="s">
+      <c r="L24" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="M24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="N24" s="19" t="s">
+      <c r="M24" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N24" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="O24" s="20">
+      <c r="O24" s="13">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P24" s="20">
+      <c r="P24" s="13">
         <v>4468</v>
       </c>
-      <c r="Q24" s="17">
+      <c r="Q24" s="10">
         <v>96000</v>
       </c>
-      <c r="R24" s="21">
+      <c r="R24" s="15">
         <v>2</v>
       </c>
-      <c r="S24" s="21">
+      <c r="S24" s="15">
         <v>16</v>
       </c>
-      <c r="T24" s="21">
+      <c r="T24" s="15">
         <v>9</v>
       </c>
-      <c r="U24" s="21">
-        <v>6.6</v>
-      </c>
-      <c r="V24" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="W24" s="18">
+      <c r="U24" s="15">
+        <v>5.4</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="W24" s="4">
         <v>2</v>
       </c>
-      <c r="X24" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16">
+      <c r="X24" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
         <v>0.4</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="10">
         <v>9</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10">
         <v>1050</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18" t="s">
+      <c r="F25" s="10"/>
+      <c r="G25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K25" s="19" t="s">
+      <c r="K25" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="L25" s="19" t="s">
+      <c r="L25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="M25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="N25" s="19" t="s">
+      <c r="M25" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N25" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="O25" s="20">
+      <c r="O25" s="13">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P25" s="20">
+      <c r="P25" s="13">
         <v>4468</v>
       </c>
-      <c r="Q25" s="17">
+      <c r="Q25" s="10">
         <v>96000</v>
       </c>
-      <c r="R25" s="21">
+      <c r="R25" s="15">
         <v>2</v>
       </c>
-      <c r="S25" s="21">
+      <c r="S25" s="15">
         <v>16</v>
       </c>
-      <c r="T25" s="21">
+      <c r="T25" s="15">
         <v>9</v>
       </c>
-      <c r="U25" s="21">
-        <v>6.6</v>
-      </c>
-      <c r="V25" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="W25" s="18">
+      <c r="U25" s="15">
+        <v>5.4</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="W25" s="4">
         <v>2</v>
       </c>
-      <c r="X25" s="18" t="s">
-        <v>96</v>
+      <c r="X25" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
@@ -2636,9 +2627,7 @@
       <c r="E26" s="9">
         <v>22.432120000000001</v>
       </c>
-      <c r="F26" s="9">
-        <v>35</v>
-      </c>
+      <c r="F26" s="9"/>
       <c r="G26" s="3" t="s">
         <v>37</v>
       </c>
@@ -2658,7 +2647,7 @@
         <v>63</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>64</v>
@@ -2667,7 +2656,7 @@
         <v>4</v>
       </c>
       <c r="P26" s="9">
-        <v>16730</v>
+        <v>22413.4</v>
       </c>
       <c r="Q26" s="9">
         <v>320000</v>
@@ -2683,6 +2672,9 @@
       </c>
       <c r="U26" s="11">
         <v>4.2</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="W26" s="3">
         <v>1</v>
@@ -2707,9 +2699,7 @@
       <c r="E27" s="9">
         <v>247.6611</v>
       </c>
-      <c r="F27" s="9">
-        <v>300</v>
-      </c>
+      <c r="F27" s="9"/>
       <c r="G27" s="3" t="s">
         <v>37</v>
       </c>
@@ -2729,7 +2719,7 @@
         <v>63</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>64</v>
@@ -2738,7 +2728,7 @@
         <v>4</v>
       </c>
       <c r="P27" s="9">
-        <v>16730</v>
+        <v>22413.4</v>
       </c>
       <c r="Q27" s="9">
         <v>320000</v>
@@ -2754,6 +2744,9 @@
       </c>
       <c r="U27" s="11">
         <v>4.2</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="W27" s="3">
         <v>1</v>
@@ -2778,9 +2771,7 @@
       <c r="E28" s="9">
         <v>3714.835</v>
       </c>
-      <c r="F28" s="9">
-        <v>4000</v>
-      </c>
+      <c r="F28" s="9"/>
       <c r="G28" s="3" t="s">
         <v>37</v>
       </c>
@@ -2800,7 +2791,7 @@
         <v>63</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>64</v>
@@ -2809,7 +2800,7 @@
         <v>4</v>
       </c>
       <c r="P28" s="9">
-        <v>16730</v>
+        <v>22413.4</v>
       </c>
       <c r="Q28" s="9">
         <v>320000</v>
@@ -2825,6 +2816,9 @@
       </c>
       <c r="U28" s="11">
         <v>4.2</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="W28" s="3">
         <v>1</v>
@@ -2840,18 +2834,12 @@
       <c r="B29" s="9">
         <v>21.9</v>
       </c>
-      <c r="C29" s="9">
-        <v>1.175</v>
-      </c>
-      <c r="D29" s="9">
-        <v>3.2</v>
-      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>1.9390719999999999</v>
-      </c>
-      <c r="F29" s="9">
         <v>1.7</v>
       </c>
+      <c r="F29" s="9"/>
       <c r="G29" s="3" t="s">
         <v>38</v>
       </c>
@@ -2871,7 +2859,7 @@
         <v>74</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>64</v>
@@ -2880,7 +2868,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="P29" s="9">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="Q29" s="9">
         <v>25000</v>
@@ -2898,7 +2886,7 @@
         <v>8.9</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W29" s="3">
         <v>1</v>
@@ -2914,18 +2902,12 @@
       <c r="B30" s="9">
         <v>23.3</v>
       </c>
-      <c r="C30" s="9">
-        <v>1.2649999999999999</v>
-      </c>
-      <c r="D30" s="9">
-        <v>3.6850000000000001</v>
-      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="9">
-        <v>2.1590569999999998</v>
-      </c>
-      <c r="F30" s="9">
         <v>1.9</v>
       </c>
+      <c r="F30" s="9"/>
       <c r="G30" s="3" t="s">
         <v>38</v>
       </c>
@@ -2945,7 +2927,7 @@
         <v>74</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>64</v>
@@ -2954,7 +2936,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="P30" s="9">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="Q30" s="9">
         <v>25000</v>
@@ -2972,7 +2954,7 @@
         <v>8.9</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W30" s="3">
         <v>1</v>
@@ -2988,18 +2970,12 @@
       <c r="B31" s="9">
         <v>21.1</v>
       </c>
-      <c r="C31" s="9">
-        <v>2.7850000000000001</v>
-      </c>
-      <c r="D31" s="9">
-        <v>8.68</v>
-      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>4.9166860000000003</v>
-      </c>
-      <c r="F31" s="9">
         <v>4.4000000000000004</v>
       </c>
+      <c r="F31" s="9"/>
       <c r="G31" s="3" t="s">
         <v>38</v>
       </c>
@@ -3019,7 +2995,7 @@
         <v>74</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>64</v>
@@ -3028,7 +3004,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="P31" s="9">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="Q31" s="9">
         <v>25000</v>
@@ -3046,7 +3022,7 @@
         <v>8.9</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W31" s="3">
         <v>1</v>
@@ -3062,18 +3038,12 @@
       <c r="B32" s="9">
         <v>20.6</v>
       </c>
-      <c r="C32" s="9">
-        <v>9.2050000000000001</v>
-      </c>
-      <c r="D32" s="9">
-        <v>25.364999999999998</v>
-      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="9">
-        <v>15.28021</v>
-      </c>
-      <c r="F32" s="9">
         <v>13.7</v>
       </c>
+      <c r="F32" s="9"/>
       <c r="G32" s="3" t="s">
         <v>38</v>
       </c>
@@ -3093,7 +3063,7 @@
         <v>74</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N32" s="5" t="s">
         <v>64</v>
@@ -3102,7 +3072,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="P32" s="9">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="Q32" s="9">
         <v>25000</v>
@@ -3120,7 +3090,7 @@
         <v>8.9</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W32" s="3">
         <v>1</v>
@@ -3136,18 +3106,12 @@
       <c r="B33" s="9">
         <v>20.3</v>
       </c>
-      <c r="C33" s="9">
-        <v>37.4</v>
-      </c>
-      <c r="D33" s="9">
-        <v>96.4</v>
-      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>60.044649999999997</v>
-      </c>
-      <c r="F33" s="9">
         <v>54</v>
       </c>
+      <c r="F33" s="9"/>
       <c r="G33" s="3" t="s">
         <v>38</v>
       </c>
@@ -3167,7 +3131,7 @@
         <v>74</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N33" s="5" t="s">
         <v>64</v>
@@ -3176,7 +3140,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="P33" s="9">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="Q33" s="9">
         <v>25000</v>
@@ -3194,7 +3158,7 @@
         <v>8.9</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W33" s="3">
         <v>1</v>
@@ -3210,18 +3174,12 @@
       <c r="B34" s="9">
         <v>18.8</v>
       </c>
-      <c r="C34" s="9">
-        <v>406.25</v>
-      </c>
-      <c r="D34" s="9">
-        <v>779.7</v>
-      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="9">
-        <v>562.80820000000006</v>
-      </c>
-      <c r="F34" s="9">
         <v>499</v>
       </c>
+      <c r="F34" s="9"/>
       <c r="G34" s="3" t="s">
         <v>38</v>
       </c>
@@ -3241,7 +3199,7 @@
         <v>74</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>64</v>
@@ -3250,7 +3208,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="P34" s="9">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="Q34" s="9">
         <v>25000</v>
@@ -3268,7 +3226,7 @@
         <v>8.9</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W34" s="3">
         <v>1</v>
@@ -3309,7 +3267,7 @@
         <v>74</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>68</v>
@@ -3321,7 +3279,7 @@
         <v>21</v>
       </c>
       <c r="Q35" s="9">
-        <v>582</v>
+        <v>595.5</v>
       </c>
       <c r="R35" s="11">
         <v>-2</v>
@@ -3336,10 +3294,10 @@
         <v>1.4</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="W35" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X35" s="3" t="s">
         <v>45</v>
@@ -3377,7 +3335,7 @@
         <v>74</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N36" s="3" t="s">
         <v>68</v>
@@ -3389,7 +3347,7 @@
         <v>21</v>
       </c>
       <c r="Q36" s="9">
-        <v>582</v>
+        <v>595.5</v>
       </c>
       <c r="R36" s="11">
         <v>-2</v>
@@ -3404,10 +3362,10 @@
         <v>1.4</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="W36" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X36" s="3" t="s">
         <v>45</v>
@@ -3445,7 +3403,7 @@
         <v>74</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N37" s="3" t="s">
         <v>69</v>
@@ -3454,7 +3412,7 @@
         <v>4</v>
       </c>
       <c r="P37" s="9">
-        <v>2740</v>
+        <v>2770</v>
       </c>
       <c r="Q37" s="9">
         <v>68000</v>
@@ -3469,13 +3427,13 @@
         <v>24.5</v>
       </c>
       <c r="U37" s="11">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="W37" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X37" s="3" t="s">
         <v>48</v>
@@ -3513,7 +3471,7 @@
         <v>74</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>69</v>
@@ -3522,7 +3480,7 @@
         <v>4</v>
       </c>
       <c r="P38" s="9">
-        <v>2740</v>
+        <v>2770</v>
       </c>
       <c r="Q38" s="9">
         <v>68000</v>
@@ -3537,13 +3495,13 @@
         <v>24.5</v>
       </c>
       <c r="U38" s="11">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="W38" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X38" s="3" t="s">
         <v>48</v>
@@ -3581,7 +3539,7 @@
         <v>74</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N39" s="3" t="s">
         <v>69</v>
@@ -3590,7 +3548,7 @@
         <v>4</v>
       </c>
       <c r="P39" s="9">
-        <v>2740</v>
+        <v>2770</v>
       </c>
       <c r="Q39" s="9">
         <v>68000</v>
@@ -3605,13 +3563,13 @@
         <v>24.5</v>
       </c>
       <c r="U39" s="11">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="W39" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X39" s="3" t="s">
         <v>48</v>
@@ -3649,7 +3607,7 @@
         <v>74</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>69</v>
@@ -3658,7 +3616,7 @@
         <v>4</v>
       </c>
       <c r="P40" s="9">
-        <v>2740</v>
+        <v>2770</v>
       </c>
       <c r="Q40" s="9">
         <v>68000</v>
@@ -3673,13 +3631,13 @@
         <v>24.5</v>
       </c>
       <c r="U40" s="11">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="W40" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X40" s="3" t="s">
         <v>48</v>
@@ -3699,13 +3657,13 @@
         <v>6</v>
       </c>
       <c r="G41" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="I41" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>75</v>
@@ -3717,37 +3675,40 @@
         <v>59</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N41" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O41" s="13">
+      <c r="O41" s="14">
         <v>3.5</v>
       </c>
-      <c r="P41" s="13">
+      <c r="P41" s="14">
         <v>19</v>
       </c>
-      <c r="Q41" s="13">
+      <c r="Q41" s="14">
         <v>300</v>
       </c>
-      <c r="R41" s="15">
+      <c r="R41" s="16">
         <v>16</v>
       </c>
-      <c r="S41" s="15">
+      <c r="S41" s="16">
         <v>25</v>
       </c>
-      <c r="T41" s="15">
+      <c r="T41" s="16">
         <v>20.5</v>
       </c>
-      <c r="U41" s="14" t="s">
-        <v>22</v>
+      <c r="U41" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="W41" s="3">
         <v>1</v>
       </c>
-      <c r="X41" s="6" t="s">
-        <v>93</v>
+      <c r="X41" s="17" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
@@ -3764,13 +3725,13 @@
         <v>16</v>
       </c>
       <c r="G42" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="I42" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="J42" s="6" t="s">
         <v>75</v>
@@ -3782,37 +3743,40 @@
         <v>59</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N42" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O42" s="13">
+      <c r="O42" s="14">
         <v>3.5</v>
       </c>
-      <c r="P42" s="13">
+      <c r="P42" s="14">
         <v>19</v>
       </c>
-      <c r="Q42" s="13">
+      <c r="Q42" s="14">
         <v>300</v>
       </c>
-      <c r="R42" s="15">
+      <c r="R42" s="16">
         <v>16</v>
       </c>
-      <c r="S42" s="15">
+      <c r="S42" s="16">
         <v>25</v>
       </c>
-      <c r="T42" s="15">
+      <c r="T42" s="16">
         <v>20.5</v>
       </c>
-      <c r="U42" s="14" t="s">
-        <v>22</v>
+      <c r="U42" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="W42" s="3">
         <v>1</v>
       </c>
-      <c r="X42" s="6" t="s">
-        <v>93</v>
+      <c r="X42" s="17" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
@@ -3829,13 +3793,13 @@
         <v>36</v>
       </c>
       <c r="G43" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="I43" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="J43" s="6" t="s">
         <v>75</v>
@@ -3847,37 +3811,40 @@
         <v>59</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N43" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O43" s="13">
+      <c r="O43" s="14">
         <v>3.5</v>
       </c>
-      <c r="P43" s="13">
+      <c r="P43" s="14">
         <v>19</v>
       </c>
-      <c r="Q43" s="13">
+      <c r="Q43" s="14">
         <v>300</v>
       </c>
-      <c r="R43" s="15">
+      <c r="R43" s="16">
         <v>16</v>
       </c>
-      <c r="S43" s="15">
+      <c r="S43" s="16">
         <v>25</v>
       </c>
-      <c r="T43" s="15">
+      <c r="T43" s="16">
         <v>20.5</v>
       </c>
-      <c r="U43" s="14" t="s">
-        <v>22</v>
+      <c r="U43" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="W43" s="3">
         <v>1</v>
       </c>
-      <c r="X43" s="6" t="s">
-        <v>93</v>
+      <c r="X43" s="17" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
@@ -3894,10 +3861,10 @@
         <v>132.5</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>55</v>
@@ -3912,7 +3879,7 @@
         <v>63</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>64</v>
@@ -3938,11 +3905,14 @@
       <c r="U44" s="11">
         <v>4.0999999999999996</v>
       </c>
+      <c r="V44" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="W44" s="3">
         <v>2</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
@@ -3959,10 +3929,10 @@
         <v>217.5</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>55</v>
@@ -3977,7 +3947,7 @@
         <v>63</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>64</v>
@@ -4003,11 +3973,14 @@
       <c r="U45" s="11">
         <v>4.0999999999999996</v>
       </c>
+      <c r="V45" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="W45" s="3">
         <v>2</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
@@ -4024,10 +3997,10 @@
         <v>370</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>55</v>
@@ -4042,7 +4015,7 @@
         <v>63</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>64</v>
@@ -4068,11 +4041,14 @@
       <c r="U46" s="11">
         <v>4.0999999999999996</v>
       </c>
+      <c r="V46" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="W46" s="3">
         <v>2</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/data/growth_data_Topt.xlsx
+++ b/data/growth_data_Topt.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6424FB-6A89-C24F-B473-72F157DE9DF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5638A226-AEAC-1146-ADF0-0E622E76FF25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12580" yWindow="460" windowWidth="21640" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="460" windowWidth="21640" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -357,9 +357,6 @@
     <t>Potentially average over a too large size-range; Geometric mean from size window; Unusual formula for SGR; Wild strain; Maturity size based on 16C treatment and 42% maturing (males); T_opt from fitted polynomial</t>
   </si>
   <si>
-    <t>Seawater treatment; Geometric mean from size window; Maturation size from Davis 1982 Aust. J. Mar. Freshwater Res</t>
-  </si>
-  <si>
     <t>Original unit in g/fish/day, converted by dividing by mass (g) and multiplying by 100; Optimum growth temperature = temperature at max growth</t>
   </si>
   <si>
@@ -369,9 +366,6 @@
     <t>Experiments not conducted at the same time (partly published previously); Maturation size 77.5 cm (Males 75, Females 80) (Icelandic cod at year 2000 Pardoe et al 2009 CJFAS); Temperature not from FishBase as it was not concistent with reference. Instead I used mean minimum and maximum from Righton et al (2010). Thermal niche of Atlantic cod Gadus morhua: limits, tolerance and optima. Marine Ecology Progress Series, 420, 1-13.</t>
   </si>
   <si>
-    <t>Growth is for a large size-range; Geometric mean average initial and final size</t>
-  </si>
-  <si>
     <t>Standard growth unit. different equation; Calculated sizes from mean TL using equation in Fig. 2; Multiple data points per temp and size, calculated mean in separate doc.; w_maturation from Craig et al 1981 CJFA, age at maturatity 2,3, used geometric mean of length at age.</t>
   </si>
   <si>
@@ -384,7 +378,13 @@
     <t>Zhang-etal-2016-JournalofAppliedIchtyology</t>
   </si>
   <si>
-    <t>Geometric mean from size window; Weight at maturation from midpoint in length in Foss et al 2004 Reviews in Fish Biology and Fisheries</t>
+    <t>Data from author (two measurements at warmest temp, took average); Geometric mean from size window; Weight at maturation from midpoint in length in Foss et al 2004 Reviews in Fish Biology and Fisheries</t>
+  </si>
+  <si>
+    <t>Data from author; Seawater treatment; Geometric mean from size window; Maturation size from Davis 1982 Aust. J. Mar. Freshwater Res</t>
+  </si>
+  <si>
+    <t>Growth is for a large size-range; Geometric mean average initial and final size; Data from author bud took from figure since not all data could be retrieved</t>
   </si>
 </sst>
 </file>
@@ -842,9 +842,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -877,7 +877,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>32</v>
@@ -1877,8 +1877,8 @@
       <c r="U15" s="15">
         <v>8.4</v>
       </c>
-      <c r="V15" s="14" t="s">
-        <v>110</v>
+      <c r="V15" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="W15" s="18" t="s">
         <v>31</v>
@@ -1942,8 +1942,8 @@
       <c r="U16" s="15">
         <v>8.4</v>
       </c>
-      <c r="V16" s="14" t="s">
-        <v>110</v>
+      <c r="V16" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="W16" s="18" t="s">
         <v>31</v>
@@ -2012,7 +2012,7 @@
         <v>27.05</v>
       </c>
       <c r="V17" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W17" s="18" t="s">
         <v>96</v>
@@ -2081,7 +2081,7 @@
         <v>27.05</v>
       </c>
       <c r="V18" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W18" s="18" t="s">
         <v>96</v>
@@ -2146,7 +2146,7 @@
         <v>5.4</v>
       </c>
       <c r="V19" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W19" s="18" t="s">
         <v>92</v>
@@ -2211,7 +2211,7 @@
         <v>5.4</v>
       </c>
       <c r="V20" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W20" s="18" t="s">
         <v>92</v>
@@ -2276,7 +2276,7 @@
         <v>5.4</v>
       </c>
       <c r="V21" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W21" s="18" t="s">
         <v>92</v>
@@ -2341,7 +2341,7 @@
         <v>5.4</v>
       </c>
       <c r="V22" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W22" s="18" t="s">
         <v>92</v>
@@ -2406,7 +2406,7 @@
         <v>5.4</v>
       </c>
       <c r="V23" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W23" s="18" t="s">
         <v>92</v>
@@ -2471,7 +2471,7 @@
         <v>5.4</v>
       </c>
       <c r="V24" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W24" s="18" t="s">
         <v>92</v>
@@ -2536,7 +2536,7 @@
         <v>5.4</v>
       </c>
       <c r="V25" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W25" s="18" t="s">
         <v>92</v>
@@ -2604,8 +2604,8 @@
       <c r="U26" s="15">
         <v>4.2</v>
       </c>
-      <c r="V26" s="14" t="s">
-        <v>114</v>
+      <c r="V26" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="W26" s="14" t="s">
         <v>36</v>
@@ -2673,8 +2673,8 @@
       <c r="U27" s="15">
         <v>4.2</v>
       </c>
-      <c r="V27" s="14" t="s">
-        <v>114</v>
+      <c r="V27" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="W27" s="14" t="s">
         <v>36</v>
@@ -2742,8 +2742,8 @@
       <c r="U28" s="15">
         <v>4.2</v>
       </c>
-      <c r="V28" s="14" t="s">
-        <v>114</v>
+      <c r="V28" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="W28" s="14" t="s">
         <v>36</v>
@@ -3198,7 +3198,7 @@
         <v>1.4</v>
       </c>
       <c r="V35" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="W35" s="14" t="s">
         <v>45</v>
@@ -3263,7 +3263,7 @@
         <v>1.4</v>
       </c>
       <c r="V36" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="W36" s="14" t="s">
         <v>45</v>
@@ -3328,7 +3328,7 @@
         <v>13.95</v>
       </c>
       <c r="V37" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W37" s="14" t="s">
         <v>48</v>
@@ -3393,7 +3393,7 @@
         <v>13.95</v>
       </c>
       <c r="V38" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W38" s="14" t="s">
         <v>48</v>
@@ -3458,7 +3458,7 @@
         <v>13.95</v>
       </c>
       <c r="V39" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W39" s="14" t="s">
         <v>48</v>
@@ -3523,7 +3523,7 @@
         <v>13.95</v>
       </c>
       <c r="V40" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W40" s="14" t="s">
         <v>48</v>
@@ -3588,10 +3588,10 @@
         <v>22</v>
       </c>
       <c r="V41" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="W41" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
@@ -3653,10 +3653,10 @@
         <v>22</v>
       </c>
       <c r="V42" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="W42" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
@@ -3718,10 +3718,10 @@
         <v>22</v>
       </c>
       <c r="V43" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="W43" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
@@ -3782,8 +3782,8 @@
       <c r="U44" s="15">
         <v>4.0999999999999996</v>
       </c>
-      <c r="V44" s="14" t="s">
-        <v>119</v>
+      <c r="V44" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="W44" s="14" t="s">
         <v>95</v>
@@ -3847,8 +3847,8 @@
       <c r="U45" s="15">
         <v>4.0999999999999996</v>
       </c>
-      <c r="V45" s="14" t="s">
-        <v>119</v>
+      <c r="V45" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="W45" s="14" t="s">
         <v>95</v>
@@ -3912,8 +3912,8 @@
       <c r="U46" s="15">
         <v>4.0999999999999996</v>
       </c>
-      <c r="V46" s="14" t="s">
-        <v>119</v>
+      <c r="V46" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="W46" s="14" t="s">
         <v>95</v>

--- a/data/growth_data_Topt.xlsx
+++ b/data/growth_data_Topt.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5638A226-AEAC-1146-ADF0-0E622E76FF25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC2C04C-27BA-284E-9F06-97420EAD2CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="460" windowWidth="21640" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12960" yWindow="3040" windowWidth="21640" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -375,9 +375,6 @@
     <t>Fish sizes are "about" the size specified; Weight at maturation based on min size of maturation (midpoint of sexes) from Cao etal 2009 Environ Biol Fish; Optimum is temperature treatment yielding highest growth (not estimated)</t>
   </si>
   <si>
-    <t>Zhang-etal-2016-JournalofAppliedIchtyology</t>
-  </si>
-  <si>
     <t>Data from author (two measurements at warmest temp, took average); Geometric mean from size window; Weight at maturation from midpoint in length in Foss et al 2004 Reviews in Fish Biology and Fisheries</t>
   </si>
   <si>
@@ -385,6 +382,9 @@
   </si>
   <si>
     <t>Growth is for a large size-range; Geometric mean average initial and final size; Data from author bud took from figure since not all data could be retrieved</t>
+  </si>
+  <si>
+    <t>Zhang-etal-2017-JournalofAppliedIchtyology</t>
   </si>
 </sst>
 </file>
@@ -842,9 +842,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W21" sqref="W21"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1878,7 +1878,7 @@
         <v>8.4</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W15" s="18" t="s">
         <v>31</v>
@@ -1943,7 +1943,7 @@
         <v>8.4</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W16" s="18" t="s">
         <v>31</v>
@@ -2605,7 +2605,7 @@
         <v>4.2</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W26" s="14" t="s">
         <v>36</v>
@@ -2674,7 +2674,7 @@
         <v>4.2</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W27" s="14" t="s">
         <v>36</v>
@@ -2743,7 +2743,7 @@
         <v>4.2</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W28" s="14" t="s">
         <v>36</v>
@@ -3591,7 +3591,7 @@
         <v>115</v>
       </c>
       <c r="W41" s="11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
@@ -3656,7 +3656,7 @@
         <v>115</v>
       </c>
       <c r="W42" s="11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
@@ -3721,7 +3721,7 @@
         <v>115</v>
       </c>
       <c r="W43" s="11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
@@ -3783,7 +3783,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W44" s="14" t="s">
         <v>95</v>
@@ -3848,7 +3848,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W45" s="14" t="s">
         <v>95</v>
@@ -3913,7 +3913,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W46" s="14" t="s">
         <v>95</v>

--- a/data/growth_data_Topt.xlsx
+++ b/data/growth_data_Topt.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC2C04C-27BA-284E-9F06-97420EAD2CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E9F0B5-1E59-F743-AAB7-8E4C349E9939}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12960" yWindow="3040" windowWidth="21640" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="3040" windowWidth="31360" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -372,9 +372,6 @@
     <t>Fish sizes are "about" the size specified; Weight at maturation based on median lengths from two fishbase sources; Optimum is temperature treatment yielding highest growth (not estimated)</t>
   </si>
   <si>
-    <t>Fish sizes are "about" the size specified; Weight at maturation based on min size of maturation (midpoint of sexes) from Cao etal 2009 Environ Biol Fish; Optimum is temperature treatment yielding highest growth (not estimated)</t>
-  </si>
-  <si>
     <t>Data from author (two measurements at warmest temp, took average); Geometric mean from size window; Weight at maturation from midpoint in length in Foss et al 2004 Reviews in Fish Biology and Fisheries</t>
   </si>
   <si>
@@ -385,6 +382,9 @@
   </si>
   <si>
     <t>Zhang-etal-2017-JournalofAppliedIchtyology</t>
+  </si>
+  <si>
+    <t>Weight at maturation based on min size of maturation (midpoint of sexes) from Cao etal 2009 Environ Biol Fish; Optimum is temperature treatment yielding highest growth (not estimated)</t>
   </si>
 </sst>
 </file>
@@ -842,9 +842,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V38" sqref="V38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1005,7 +1005,7 @@
       <c r="T2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="12">
+      <c r="U2" s="15">
         <v>13.5</v>
       </c>
       <c r="V2" s="14" t="s">
@@ -1074,7 +1074,7 @@
       <c r="T3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="12">
+      <c r="U3" s="15">
         <v>13.5</v>
       </c>
       <c r="V3" s="14" t="s">
@@ -1143,7 +1143,7 @@
       <c r="T4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="12">
+      <c r="U4" s="15">
         <v>13.5</v>
       </c>
       <c r="V4" s="14" t="s">
@@ -1208,7 +1208,7 @@
       <c r="T5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="12">
+      <c r="U5" s="15">
         <v>6</v>
       </c>
       <c r="V5" s="14" t="s">
@@ -1273,7 +1273,7 @@
       <c r="T6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="12">
+      <c r="U6" s="15">
         <v>6</v>
       </c>
       <c r="V6" s="14" t="s">
@@ -1338,7 +1338,7 @@
       <c r="T7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="U7" s="12">
+      <c r="U7" s="15">
         <v>6</v>
       </c>
       <c r="V7" s="14" t="s">
@@ -1403,7 +1403,7 @@
       <c r="T8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="12">
+      <c r="U8" s="15">
         <v>6</v>
       </c>
       <c r="V8" s="14" t="s">
@@ -1472,7 +1472,7 @@
       <c r="T9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="U9" s="12">
+      <c r="U9" s="15">
         <v>16.8</v>
       </c>
       <c r="V9" s="14" t="s">
@@ -1878,7 +1878,7 @@
         <v>8.4</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W15" s="18" t="s">
         <v>31</v>
@@ -1943,7 +1943,7 @@
         <v>8.4</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W16" s="18" t="s">
         <v>31</v>
@@ -2605,7 +2605,7 @@
         <v>4.2</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W26" s="14" t="s">
         <v>36</v>
@@ -2674,7 +2674,7 @@
         <v>4.2</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W27" s="14" t="s">
         <v>36</v>
@@ -2743,7 +2743,7 @@
         <v>4.2</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W28" s="14" t="s">
         <v>36</v>
@@ -3588,10 +3588,10 @@
         <v>22</v>
       </c>
       <c r="V41" s="14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="W41" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
@@ -3653,10 +3653,10 @@
         <v>22</v>
       </c>
       <c r="V42" s="14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="W42" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
@@ -3718,10 +3718,10 @@
         <v>22</v>
       </c>
       <c r="V43" s="14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="W43" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
@@ -3783,7 +3783,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W44" s="14" t="s">
         <v>95</v>
@@ -3848,7 +3848,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W45" s="14" t="s">
         <v>95</v>
@@ -3913,7 +3913,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W46" s="14" t="s">
         <v>95</v>

--- a/data/growth_data_Topt.xlsx
+++ b/data/growth_data_Topt.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E9F0B5-1E59-F743-AAB7-8E4C349E9939}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E136C101-A351-554B-A3B8-87CEF0BAE691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="3040" windowWidth="31360" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -843,8 +843,8 @@
   <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V38" sqref="V38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
